--- a/Slooier_voorraad/Slooier_voorraad/Voorbeeld_Data/bestellijst wijngo materialenV2.xlsx
+++ b/Slooier_voorraad/Slooier_voorraad/Voorbeeld_Data/bestellijst wijngo materialenV2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Red Darkness\Documents\Documenten\Github\Repositories\Slooier_management\Slooier_voorraad\Slooier_voorraad\Voorbeeld_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Github\Repositories\Slooier_management\Slooier_voorraad\Slooier_voorraad\Voorbeeld_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE2B553-CE80-4C96-8300-ACA2765334D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759AFB05-B6E2-4361-B769-ACC515B0CB47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>hang en sluitwerk</t>
   </si>
@@ -983,18 +983,6 @@
   </si>
   <si>
     <t>gipsschroeven 3.9 x 25 doos op band 1000 stuks</t>
-  </si>
-  <si>
-    <t>Benaming</t>
-  </si>
-  <si>
-    <t>Nummer</t>
-  </si>
-  <si>
-    <t>Omschrijving</t>
-  </si>
-  <si>
-    <t>Prijs</t>
   </si>
 </sst>
 </file>
@@ -1379,3121 +1367,3102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="1.88671875" customWidth="1"/>
     <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>322</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
+      <c r="B29" s="2">
+        <v>301826</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
-        <v>301826</v>
+        <v>999058</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E30">
+        <v>53.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
-        <v>999058</v>
+        <v>200084</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E31">
-        <v>53.48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="2">
-        <v>200084</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="2"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" t="s">
-        <v>50</v>
+      <c r="B36" s="2">
+        <v>200457</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E36">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
-        <v>200457</v>
+        <v>200043</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37">
-        <v>20.59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
-        <v>200043</v>
+        <v>200575</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
-        <v>200575</v>
+        <v>200337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39">
-        <v>16.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
-        <v>200337</v>
+        <v>200131</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E40">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
-        <v>200131</v>
+        <v>201563</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41">
-        <v>13.99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
-        <v>201563</v>
+        <v>201756</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
-        <v>201756</v>
+        <v>275015</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E43">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
-        <v>275015</v>
+        <v>330750</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>139</v>
+      <c r="D44" t="s">
+        <v>295</v>
       </c>
       <c r="E44">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
-        <v>330750</v>
+        <v>330775</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E45">
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2">
-        <v>330775</v>
+      <c r="B46" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E46">
-        <v>25.66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2">
+        <v>305466</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
-        <v>305466</v>
+        <v>305465</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E51">
         <v>31.01</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
-        <v>305465</v>
+        <v>950127</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E52">
-        <v>31.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
-        <v>950127</v>
+        <v>950126</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E53">
         <v>14.76</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
-        <v>950126</v>
+        <v>950177</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E54">
-        <v>14.76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
-        <v>950177</v>
+        <v>950176</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
-        <v>950176</v>
+        <v>313139</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E56">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
-        <v>313139</v>
+        <v>313118</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="2">
-        <v>313118</v>
+      <c r="B58" t="s">
+        <v>220</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" t="s">
-        <v>83</v>
+      <c r="B60" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>229</v>
+      <c r="B61" t="s">
+        <v>201</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" t="s">
-        <v>200</v>
+      <c r="B64" s="2">
+        <v>413980</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
-        <v>413980</v>
+        <v>413983</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
-        <v>413983</v>
+        <v>255234</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
-        <v>255234</v>
+        <v>305101</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="E67">
-        <v>16.47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2">
-        <v>305101</v>
+        <v>220005</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="E68">
-        <v>36.28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="2">
-        <v>220005</v>
+      <c r="B69" t="s">
+        <v>142</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="2"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2">
+        <v>155830</v>
+      </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72">
+        <v>36.159999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
-        <v>155830</v>
+        <v>155822</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E73">
-        <v>36.159999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
-        <v>155822</v>
+        <v>155823</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="E74">
         <v>62.72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
-        <v>155823</v>
+        <v>151255</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>284</v>
+      <c r="D75" t="s">
+        <v>296</v>
       </c>
       <c r="E75">
-        <v>62.72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
-        <v>151255</v>
+        <v>5128</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" t="s">
-        <v>296</v>
-      </c>
-      <c r="E76">
-        <v>25.75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
-        <v>5128</v>
+        <v>148020</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>304</v>
+      </c>
+      <c r="E77">
+        <v>42.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="2">
-        <v>148020</v>
-      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" t="s">
-        <v>304</v>
-      </c>
-      <c r="E78">
-        <v>42.48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="2">
+        <v>148415</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>42.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2">
-        <v>148415</v>
+        <v>148658</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80">
-        <v>42.08</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
-        <v>148658</v>
+        <v>424531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2">
-        <v>424531</v>
+        <v>424510</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
-        <v>424510</v>
+        <v>424515</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="2">
-        <v>424515</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2">
+        <v>155545</v>
+      </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85">
+        <v>182.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="2">
-        <v>155545</v>
-      </c>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" t="s">
-        <v>305</v>
-      </c>
-      <c r="E86">
-        <v>182.04</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="2">
+        <v>970420</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
-        <v>970420</v>
+        <v>148735</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E88">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2">
-        <v>148735</v>
+        <v>150922</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>37</v>
+      <c r="D89" t="s">
+        <v>306</v>
       </c>
       <c r="E89">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140.97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
-        <v>150922</v>
+        <v>150935</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" t="s">
-        <v>306</v>
+      <c r="D90" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E90">
-        <v>140.97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
-        <v>150935</v>
+        <v>151296</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="E91">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
-        <v>151296</v>
+        <v>525086</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2">
-        <v>525086</v>
+        <v>429659</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
-        <v>429659</v>
+        <v>155628</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>307</v>
+      </c>
+      <c r="E94">
+        <v>170.93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
-        <v>155628</v>
+        <v>424575</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" t="s">
-        <v>307</v>
-      </c>
-      <c r="E95">
-        <v>170.93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
-        <v>424575</v>
+        <v>525501</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
-        <v>525501</v>
+        <v>525502</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2">
-        <v>525502</v>
+        <v>525503</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2">
-        <v>525503</v>
+        <v>525504</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
-        <v>525504</v>
+        <v>525505</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="2">
-        <v>525505</v>
-      </c>
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B103" s="2"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" t="s">
+        <v>118</v>
+      </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" t="s">
-        <v>118</v>
+      <c r="B104" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="2" t="s">
-        <v>122</v>
+      <c r="B109" s="2">
+        <v>524952</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2">
-        <v>524952</v>
+        <v>483253</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E110">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2">
-        <v>483253</v>
+        <v>483251</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="E111">
-        <v>33.28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="2">
-        <v>483251</v>
+      <c r="B112" t="s">
+        <v>219</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E112">
-        <v>14.58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" t="s">
-        <v>219</v>
+      <c r="B113" s="2">
+        <v>515182</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="E113">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2">
-        <v>515182</v>
+        <v>515184</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="E114">
-        <v>17.27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2">
-        <v>515184</v>
+        <v>515185</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="E115">
-        <v>34.58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="2">
-        <v>515185</v>
-      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E116">
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B118" s="2"/>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2">
+        <v>516214</v>
+      </c>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>303</v>
+      </c>
+      <c r="E118">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2">
-        <v>516214</v>
+        <v>516222</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" t="s">
-        <v>303</v>
+      <c r="D119" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E119">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2">
-        <v>516222</v>
+        <v>516231</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="E120">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2">
-        <v>516231</v>
+        <v>516301</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="E121">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
-        <v>516301</v>
+        <v>516302</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>7.33</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2">
-        <v>516302</v>
+        <v>516305</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>7.33</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2">
-        <v>516305</v>
+        <v>516287</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124">
-        <v>7.33</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2">
-        <v>516287</v>
+        <v>516254</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E125">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2">
-        <v>516254</v>
+        <v>516252</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E126">
         <v>6.89</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2">
-        <v>516252</v>
+        <v>516251</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E127">
         <v>6.89</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2">
-        <v>516251</v>
+        <v>516253</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E128">
         <v>6.89</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2">
-        <v>516253</v>
+        <v>516256</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E129">
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2">
-        <v>516256</v>
+        <v>516276</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E130">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2">
-        <v>516276</v>
+        <v>516405</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E131">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2">
-        <v>516405</v>
+        <v>516410</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E132">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2">
-        <v>516410</v>
+        <v>500347</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E133">
-        <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="2">
-        <v>500347</v>
+      <c r="B134" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B137" s="2"/>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D137" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
-        <v>98</v>
+      <c r="B140" s="2">
+        <v>479074</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2">
-        <v>479074</v>
+        <v>479072</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="2">
-        <v>479072</v>
+      <c r="B142" t="s">
+        <v>94</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" t="s">
-        <v>94</v>
+      <c r="B143" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B153" s="2"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2">
+        <v>516631</v>
+      </c>
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D153" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
-        <v>516631</v>
+        <v>516622</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2">
-        <v>516622</v>
+        <v>479001</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E155">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="2">
-        <v>479001</v>
-      </c>
+      <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="B157" s="2">
+        <v>641383</v>
+      </c>
       <c r="C157" s="2"/>
-      <c r="D157" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>308</v>
+      </c>
+      <c r="E157">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2">
-        <v>641383</v>
+        <v>641361</v>
       </c>
       <c r="C158" s="2"/>
-      <c r="D158" t="s">
-        <v>308</v>
+      <c r="D158" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E158">
-        <v>12.41</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2">
-        <v>641361</v>
+        <v>516820</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E159">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2">
-        <v>516820</v>
+        <v>516805</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2">
-        <v>516805</v>
+        <v>636384</v>
       </c>
       <c r="C161" s="2"/>
-      <c r="D161" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>309</v>
+      </c>
+      <c r="E161">
+        <v>255.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2">
-        <v>636384</v>
+        <v>970104</v>
       </c>
       <c r="C162" s="2"/>
-      <c r="D162" t="s">
-        <v>309</v>
+      <c r="D162" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E162">
-        <v>255.6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2">
-        <v>970104</v>
+        <v>601429</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E163">
-        <v>26.36</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2">
-        <v>601429</v>
+        <v>507879</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="E164">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2">
-        <v>507879</v>
+        <v>507881</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="E165">
-        <v>35.53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2">
-        <v>507881</v>
+        <v>507880</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E166">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="2">
-        <v>507880</v>
-      </c>
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E167">
-        <v>11.28</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B171" s="2"/>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2">
+        <v>946015</v>
+      </c>
       <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D171" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2">
-        <v>946015</v>
+        <v>946296</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2">
-        <v>946296</v>
+        <v>946012</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2">
-        <v>946012</v>
+        <v>946294</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2">
-        <v>946294</v>
+        <v>474409</v>
       </c>
       <c r="C175" s="2"/>
-      <c r="D175" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>310</v>
+      </c>
+      <c r="E175">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2">
-        <v>474409</v>
+        <v>455109</v>
       </c>
       <c r="C176" s="2"/>
-      <c r="D176" t="s">
-        <v>310</v>
-      </c>
-      <c r="E176">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D176" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2">
-        <v>455109</v>
+        <v>468034</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="E177">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="2">
-        <v>468034</v>
-      </c>
+      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E178">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B182" s="2"/>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2">
+        <v>516121</v>
+      </c>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D182" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2">
-        <v>516121</v>
+        <v>975264</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2">
-        <v>975264</v>
+        <v>975014</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2">
-        <v>975014</v>
+        <v>975019</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
-        <v>975019</v>
+        <v>975186</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2">
-        <v>975186</v>
+        <v>522293</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2">
-        <v>522293</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B189" s="2"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2">
+        <v>847051</v>
+      </c>
       <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D189" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2">
-        <v>847051</v>
+        <v>515534</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="E190">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2">
-        <v>515534</v>
+        <v>643442</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E191">
-        <v>17.55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2">
-        <v>643442</v>
+        <v>515521</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E192">
-        <v>25.23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2">
-        <v>515521</v>
+        <v>526401</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E193">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2">
-        <v>526401</v>
+        <v>526449</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E194">
-        <v>10.92</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2">
-        <v>526449</v>
+        <v>526450</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2">
-        <v>526450</v>
+        <v>526724</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2">
-        <v>526724</v>
+        <v>526709</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2">
-        <v>526709</v>
+        <v>957872</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2">
-        <v>957872</v>
+        <v>716503</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="2">
-        <v>716503</v>
-      </c>
+      <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B205" s="2"/>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2">
+        <v>601345</v>
+      </c>
       <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D205" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205">
+        <v>17.440000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2">
-        <v>601345</v>
+        <v>606033</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E206">
-        <v>17.440000000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2">
-        <v>606033</v>
+        <v>623015</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2">
-        <v>623015</v>
+        <v>623119</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2">
-        <v>623119</v>
+        <v>721300</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="E209">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2">
-        <v>721300</v>
+        <v>651334</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="E210">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67.75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2">
-        <v>651334</v>
+        <v>514687</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E211">
-        <v>67.75</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2">
-        <v>514687</v>
+        <v>653022</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E212">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2">
-        <v>653022</v>
+        <v>600199</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E213">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2">
-        <v>600199</v>
+        <v>600221</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2">
-        <v>600221</v>
+        <v>487083</v>
       </c>
       <c r="C215" s="2"/>
-      <c r="D215" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>311</v>
+      </c>
+      <c r="E215">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2">
-        <v>487083</v>
+        <v>652621</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E216">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2">
-        <v>652621</v>
+        <v>653003</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E217">
-        <v>6.88</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2">
-        <v>653003</v>
+        <v>516662</v>
       </c>
       <c r="C218" s="2"/>
-      <c r="D218" t="s">
-        <v>312</v>
-      </c>
-      <c r="E218">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D218" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2">
-        <v>516662</v>
+        <v>516642</v>
       </c>
       <c r="C219" s="2"/>
-      <c r="D219" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2">
-        <v>516642</v>
+        <v>756192</v>
       </c>
       <c r="C220" s="2"/>
-      <c r="D220" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D220" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2">
-        <v>756192</v>
+        <v>830330</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2">
-        <v>830330</v>
+        <v>830331</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="2">
-        <v>830331</v>
+      <c r="B223" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="2" t="s">
-        <v>159</v>
+      <c r="B224" s="2">
+        <v>521911</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2">
-        <v>521911</v>
+        <v>515590</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2">
-        <v>515590</v>
+        <v>519804</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2">
-        <v>519804</v>
+        <v>227016</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2">
-        <v>227016</v>
+        <v>646244</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2">
-        <v>646244</v>
+        <v>838209</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="2">
-        <v>838209</v>
-      </c>
+      <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B232" s="2"/>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2">
+        <v>711255</v>
+      </c>
       <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="2">
-        <v>711255</v>
-      </c>
+      <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
+      <c r="B234" s="2">
+        <v>711371</v>
+      </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2">
-        <v>711371</v>
+        <v>957700</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2">
-        <v>957700</v>
+        <v>710109</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="2">
-        <v>710109</v>
-      </c>
+      <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
+      <c r="B238" s="2">
+        <v>950530</v>
+      </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2">
-        <v>950530</v>
+        <v>815110</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2">
-        <v>815110</v>
+        <v>815111</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2">
-        <v>815111</v>
+        <v>616865</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2">
-        <v>616865</v>
+        <v>609525</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E242">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2">
-        <v>609525</v>
+        <v>990657</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E243">
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="2">
-        <v>990657</v>
+      <c r="B244" t="s">
+        <v>87</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" t="s">
-        <v>87</v>
+      <c r="B245" s="2">
+        <v>227121</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2">
-        <v>227121</v>
+        <v>226057</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="2">
-        <v>226057</v>
-      </c>
+      <c r="B247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B258" s="2"/>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="2"/>
+      <c r="B258" t="s">
+        <v>145</v>
+      </c>
       <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D258" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" t="s">
-        <v>145</v>
-      </c>
+      <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="B260" s="2">
+        <v>632178</v>
+      </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
-      <c r="B261" s="2">
-        <v>632178</v>
+      <c r="B261" t="s">
+        <v>140</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
-      <c r="B262" t="s">
-        <v>140</v>
+      <c r="B262" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
-      <c r="B263" s="2" t="s">
-        <v>60</v>
+      <c r="B263" s="2">
+        <v>999503</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2">
-        <v>999503</v>
+        <v>716154</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
-      <c r="B265" s="2">
-        <v>716154</v>
+      <c r="B265" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
-      <c r="B266" s="2" t="s">
-        <v>151</v>
+      <c r="B266" s="2">
+        <v>612607</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E266">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2">
-        <v>612607</v>
+        <v>612518</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E267">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2">
-        <v>612518</v>
+        <v>612532</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E268">
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
-      <c r="B269" s="2">
-        <v>612532</v>
-      </c>
+      <c r="B269" s="2"/>
       <c r="C269" s="2"/>
-      <c r="D269" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E269">
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B271" s="2"/>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>297</v>
+      </c>
+      <c r="E271">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E272">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E273">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
-      <c r="B274" s="2" t="s">
-        <v>281</v>
+      <c r="B274" s="2">
+        <v>33253</v>
       </c>
       <c r="C274" s="2"/>
-      <c r="D274" t="s">
-        <v>299</v>
-      </c>
-      <c r="E274">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D274" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
-        <v>33253</v>
+        <v>33371</v>
       </c>
       <c r="C275" s="2"/>
-      <c r="D275" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>314</v>
+      </c>
+      <c r="E275">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
-      <c r="B276" s="2">
-        <v>33371</v>
-      </c>
+      <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" t="s">
-        <v>314</v>
-      </c>
-      <c r="E276">
-        <v>24.78</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
+      <c r="B277" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="E277">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E278">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E279">
-        <v>27.12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.159999999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
-      <c r="B280" s="2" t="s">
-        <v>193</v>
+      <c r="B280" s="2">
+        <v>33503</v>
       </c>
       <c r="C280" s="2"/>
-      <c r="D280" t="s">
-        <v>302</v>
+      <c r="D280" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E280">
-        <v>34.159999999999997</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2">
-        <v>33503</v>
+        <v>33190</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E281">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2">
-        <v>33190</v>
-      </c>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B282" s="2"/>
       <c r="C282" s="2"/>
-      <c r="D282" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B283" s="2"/>
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2">
+        <v>515502</v>
+      </c>
       <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>316</v>
+      </c>
+      <c r="E283">
+        <v>42.15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2">
-        <v>515502</v>
+        <v>515314</v>
       </c>
       <c r="C284" s="2"/>
-      <c r="D284" t="s">
-        <v>316</v>
+      <c r="D284" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E284">
-        <v>42.15</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
-      <c r="B285" s="2">
-        <v>515314</v>
-      </c>
+      <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E285">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
+      <c r="B286" s="2">
+        <v>22023</v>
+      </c>
       <c r="C286" s="2"/>
-      <c r="D286" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>318</v>
+      </c>
+      <c r="E286">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
-      <c r="B287" s="2">
-        <v>22023</v>
-      </c>
+      <c r="B287" s="2"/>
       <c r="C287" s="2"/>
-      <c r="D287" t="s">
-        <v>318</v>
-      </c>
-      <c r="E287">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B289" s="2"/>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2">
+        <v>138903</v>
+      </c>
       <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D289" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
-      <c r="B290" s="2">
-        <v>138903</v>
-      </c>
+      <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
+      <c r="B292" s="2">
+        <v>137505</v>
+      </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2">
-        <v>137505</v>
+        <v>137507</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2">
-        <v>137507</v>
+        <v>137509</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2">
-        <v>137509</v>
+        <v>516903</v>
       </c>
       <c r="C295" s="2"/>
-      <c r="D295" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>317</v>
+      </c>
+      <c r="E295">
+        <v>149.47</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
-      <c r="B296" s="2">
-        <v>516903</v>
-      </c>
+      <c r="B296" s="2"/>
       <c r="C296" s="2"/>
-      <c r="D296" t="s">
-        <v>317</v>
-      </c>
-      <c r="E296">
-        <v>149.47</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B298" s="2"/>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="2"/>
+      <c r="B298" t="s">
+        <v>204</v>
+      </c>
       <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D298" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
-      <c r="B299" t="s">
-        <v>204</v>
+      <c r="B299" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
-      <c r="B300" s="2" t="s">
-        <v>138</v>
+      <c r="B300" s="2">
+        <v>516972</v>
       </c>
       <c r="C300" s="2"/>
-      <c r="D300" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>319</v>
+      </c>
+      <c r="E300">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2">
-        <v>516972</v>
+        <v>516971</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E301">
-        <v>26.84</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
-      <c r="B302" s="2">
-        <v>516971</v>
-      </c>
+      <c r="B302" s="2"/>
       <c r="C302" s="2"/>
-      <c r="D302" t="s">
-        <v>320</v>
-      </c>
-      <c r="E302">
-        <v>24.72</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
     </row>
-    <row r="307" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
-    </row>
-    <row r="309" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-    </row>
-    <row r="310" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Slooier_voorraad/Slooier_voorraad/Voorbeeld_Data/bestellijst wijngo materialenV2.xlsx
+++ b/Slooier_voorraad/Slooier_voorraad/Voorbeeld_Data/bestellijst wijngo materialenV2.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Github\Repositories\Slooier_management\Slooier_voorraad\Slooier_voorraad\Voorbeeld_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Red Darkness\Documents\Documenten\Github\Repositories\Slooier_management\Slooier_voorraad\Slooier_voorraad\Voorbeeld_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759AFB05-B6E2-4361-B769-ACC515B0CB47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5F96A4-9DC4-4127-A1B2-9C5C7A04087C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Artikelen" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>hang en sluitwerk</t>
   </si>
@@ -983,22 +984,27 @@
   </si>
   <si>
     <t>gipsschroeven 3.9 x 25 doos op band 1000 stuks</t>
+  </si>
+  <si>
+    <t>Benaming</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>Prijs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1025,10 +1031,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1367,3105 +1388,2674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="1.88671875" customWidth="1"/>
-    <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="0" style="3" hidden="1"/>
+    <col min="7" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E2">
+      <c r="D3" s="2">
         <v>7.16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4">
         <v>301826</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4">
         <v>999058</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E30">
+      <c r="D30" s="2">
         <v>53.48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4">
         <v>200084</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E31">
+      <c r="D31" s="2">
         <v>9.44</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E35">
+      <c r="D33" s="2">
         <v>3.24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4">
         <v>200457</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E36">
+      <c r="D34" s="2">
         <v>20.59</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4">
         <v>200043</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E37">
+      <c r="D35" s="2">
         <v>11.24</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
         <v>200575</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E38">
+      <c r="D36" s="2">
         <v>16.32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4">
         <v>200337</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E39">
+      <c r="D37" s="2">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
         <v>200131</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E40">
+      <c r="D38" s="2">
         <v>13.99</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
         <v>201563</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4">
         <v>201756</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4">
         <v>275015</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E43">
+      <c r="D41" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
         <v>330750</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s">
+      <c r="C42" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E44">
+      <c r="D42" s="2">
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4">
         <v>330775</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s">
+      <c r="C43" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E45">
+      <c r="D43" s="2">
         <v>25.66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4">
         <v>305466</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E50">
+      <c r="D48" s="2">
         <v>31.01</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4">
         <v>305465</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E51">
+      <c r="D49" s="2">
         <v>31.01</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4">
         <v>950127</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E52">
+      <c r="D50" s="2">
         <v>14.76</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4">
         <v>950126</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E53">
+      <c r="D51" s="2">
         <v>14.76</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4">
         <v>950177</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4">
         <v>950176</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4">
         <v>313139</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E56">
+      <c r="D54" s="2">
         <v>3.55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4">
         <v>313118</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" t="s">
-        <v>201</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4">
         <v>413980</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s">
+      <c r="C62" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4">
         <v>413983</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s">
+      <c r="C63" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4">
         <v>255234</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E66">
+      <c r="D64" s="2">
         <v>16.47</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4">
         <v>305101</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E67">
+      <c r="D65" s="2">
         <v>36.28</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4">
         <v>220005</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E68">
+      <c r="D66" s="2">
         <v>3.48</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4">
         <v>155830</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E72">
+      <c r="D69" s="2">
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4">
         <v>155822</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E73">
+      <c r="D70" s="2">
         <v>62.72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4">
         <v>155823</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E74">
+      <c r="D71" s="2">
         <v>62.72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4">
         <v>151255</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s">
+      <c r="C72" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E75">
+      <c r="D72" s="2">
         <v>25.75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4">
         <v>5128</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4">
         <v>148020</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s">
+      <c r="C74" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E77">
+      <c r="D74" s="2">
         <v>42.48</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4">
         <v>148415</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E79">
+      <c r="D76" s="2">
         <v>42.08</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4">
         <v>148658</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
+      <c r="C77" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4">
         <v>424531</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
+      <c r="C78" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4">
         <v>424510</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4">
         <v>424515</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
+      <c r="C80" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4">
         <v>155545</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s">
+      <c r="C82" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E85">
+      <c r="D82" s="2">
         <v>182.04</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4">
         <v>970420</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
+      <c r="C84" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4">
         <v>148735</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E88">
+      <c r="D85" s="2">
         <v>7.81</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4">
         <v>150922</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s">
+      <c r="C86" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E89">
+      <c r="D86" s="2">
         <v>140.97</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4">
         <v>150935</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E90">
+      <c r="D87" s="2">
         <v>59.81</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4">
         <v>151296</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
+      <c r="C88" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E91">
+      <c r="D88" s="2">
         <v>6.9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4">
         <v>525086</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4">
         <v>429659</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
+      <c r="C90" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4">
         <v>155628</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s">
+      <c r="C91" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E94">
+      <c r="D91" s="2">
         <v>170.93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4">
         <v>424575</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
+      <c r="C92" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4">
         <v>525501</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
+      <c r="C93" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4">
         <v>525502</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
+      <c r="C94" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4">
         <v>525503</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4">
         <v>525504</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4">
         <v>525505</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
+      <c r="C99" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
+      <c r="C100" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2" t="s">
+      <c r="C101" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
+      <c r="C102" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4">
+        <v>524952</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4">
+        <v>483253</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="2">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4">
+        <v>483251</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="2">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
       <c r="B108" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2">
-        <v>524952</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2">
-        <v>483253</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E110">
-        <v>33.28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2">
-        <v>483251</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E111">
-        <v>14.58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" t="s">
         <v>219</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
+      <c r="C108" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4">
         <v>515182</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E113">
+      <c r="D109" s="2">
         <v>17.27</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4">
         <v>515184</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2" t="s">
+      <c r="C110" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E114">
+      <c r="D110" s="2">
         <v>34.58</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4">
         <v>515185</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2" t="s">
+      <c r="C111" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E115">
+      <c r="D111" s="2">
         <v>57.6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4">
         <v>516214</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s">
+      <c r="C113" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E118">
+      <c r="D113" s="2">
         <v>7.67</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4">
         <v>516222</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
+      <c r="C114" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E119">
+      <c r="D114" s="2">
         <v>28.9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4">
         <v>516231</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2" t="s">
+      <c r="C115" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E120">
+      <c r="D115" s="2">
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4">
         <v>516301</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
+      <c r="C116" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E121">
+      <c r="D116" s="2">
         <v>7.33</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4">
         <v>516302</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2" t="s">
+      <c r="C117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E122">
+      <c r="D117" s="2">
         <v>7.33</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4">
         <v>516305</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
+      <c r="C118" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E123">
+      <c r="D118" s="2">
         <v>7.33</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4">
         <v>516287</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2" t="s">
+      <c r="C119" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4">
         <v>516254</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2" t="s">
+      <c r="C120" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E125">
+      <c r="D120" s="2">
         <v>6.89</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4">
         <v>516252</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2" t="s">
+      <c r="C121" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E126">
+      <c r="D121" s="2">
         <v>6.89</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4">
         <v>516251</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2" t="s">
+      <c r="C122" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E127">
+      <c r="D122" s="2">
         <v>6.89</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4">
         <v>516253</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2" t="s">
+      <c r="C123" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E128">
+      <c r="D123" s="2">
         <v>6.89</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4">
         <v>516256</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2" t="s">
+      <c r="C124" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4">
         <v>516276</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2" t="s">
+      <c r="C125" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E130">
+      <c r="D125" s="2">
         <v>5.88</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4">
         <v>516405</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2" t="s">
+      <c r="C126" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E131">
+      <c r="D126" s="2">
         <v>7.34</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4">
         <v>516410</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2" t="s">
+      <c r="C127" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E132">
+      <c r="D127" s="2">
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4">
         <v>500347</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
+      <c r="C128" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2" t="s">
+      <c r="C129" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2" t="s">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2" t="s">
+      <c r="C131" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2" t="s">
+      <c r="C132" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
+      <c r="C133" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4">
         <v>479074</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2" t="s">
+      <c r="C134" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4">
         <v>479072</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2" t="s">
+      <c r="C135" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-      <c r="B142" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2" t="s">
+      <c r="C136" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2" t="s">
+      <c r="C137" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2" t="s">
+      <c r="C138" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2" t="s">
+      <c r="C139" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4">
         <v>516631</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2" t="s">
+      <c r="C141" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4">
         <v>516622</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2" t="s">
+      <c r="C142" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E154">
+      <c r="D142" s="2">
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4">
         <v>479001</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2" t="s">
+      <c r="C143" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E155">
+      <c r="D143" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4">
         <v>641383</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" t="s">
+      <c r="C145" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E157">
+      <c r="D145" s="2">
         <v>12.41</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4">
         <v>641361</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2" t="s">
+      <c r="C146" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E158">
+      <c r="D146" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4">
         <v>516820</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2" t="s">
+      <c r="C147" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4">
         <v>516805</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2" t="s">
+      <c r="C148" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4">
         <v>636384</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" t="s">
+      <c r="C149" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E161">
+      <c r="D149" s="2">
         <v>255.6</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4">
         <v>970104</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2" t="s">
+      <c r="C150" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E162">
+      <c r="D150" s="2">
         <v>26.36</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4">
         <v>601429</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2" t="s">
+      <c r="C151" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4">
         <v>507879</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2" t="s">
+      <c r="C152" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E164">
+      <c r="D152" s="2">
         <v>35.53</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4">
         <v>507881</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2" t="s">
+      <c r="C153" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E165">
+      <c r="D153" s="2">
         <v>12.9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4">
         <v>507880</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2" t="s">
+      <c r="C154" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E166">
+      <c r="D154" s="2">
         <v>11.28</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4">
         <v>946015</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2" t="s">
+      <c r="C156" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4">
         <v>946296</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2" t="s">
+      <c r="C157" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4">
         <v>946012</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2" t="s">
+      <c r="C158" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4">
         <v>946294</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2" t="s">
+      <c r="C159" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4">
         <v>474409</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" t="s">
+      <c r="C160" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E175">
+      <c r="D160" s="2">
         <v>1.36</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4">
         <v>455109</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2" t="s">
+      <c r="C161" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4">
         <v>468034</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2" t="s">
+      <c r="C162" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E177">
+      <c r="D162" s="2">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4">
         <v>516121</v>
       </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2" t="s">
+      <c r="C164" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4">
         <v>975264</v>
       </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2" t="s">
+      <c r="C165" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4">
         <v>975014</v>
       </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2" t="s">
+      <c r="C166" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4">
         <v>975019</v>
       </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2" t="s">
+      <c r="C167" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4">
         <v>975186</v>
       </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2" t="s">
+      <c r="C168" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4">
         <v>522293</v>
       </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2" t="s">
+      <c r="C169" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4">
         <v>847051</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2" t="s">
+      <c r="C171" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4">
         <v>515534</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2" t="s">
+      <c r="C172" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E190">
+      <c r="D172" s="2">
         <v>17.55</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4">
         <v>643442</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2" t="s">
+      <c r="C173" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E191">
+      <c r="D173" s="2">
         <v>25.23</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4">
         <v>515521</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2" t="s">
+      <c r="C174" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4">
         <v>526401</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2" t="s">
+      <c r="C175" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E193">
+      <c r="D175" s="2">
         <v>10.92</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4">
         <v>526449</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2" t="s">
+      <c r="C176" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4">
         <v>526450</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2" t="s">
+      <c r="C177" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4">
         <v>526724</v>
       </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2" t="s">
+      <c r="C178" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4">
         <v>526709</v>
       </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2" t="s">
+      <c r="C179" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4">
         <v>957872</v>
       </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2" t="s">
+      <c r="C180" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4">
         <v>716503</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2" t="s">
+      <c r="C181" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4">
         <v>601345</v>
       </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2" t="s">
+      <c r="C183" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E205">
+      <c r="D183" s="2">
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4">
         <v>606033</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2" t="s">
+      <c r="C184" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4">
         <v>623015</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2" t="s">
+      <c r="C185" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4">
         <v>623119</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2" t="s">
+      <c r="C186" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4">
         <v>721300</v>
       </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2" t="s">
+      <c r="C187" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E209">
+      <c r="D187" s="2">
         <v>72.5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4">
         <v>651334</v>
       </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2" t="s">
+      <c r="C188" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E210">
+      <c r="D188" s="2">
         <v>67.75</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4">
         <v>514687</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2" t="s">
+      <c r="C189" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4">
         <v>653022</v>
       </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2" t="s">
+      <c r="C190" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E212">
+      <c r="D190" s="2">
         <v>4.95</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4">
         <v>600199</v>
       </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2" t="s">
+      <c r="C191" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4">
         <v>600221</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2" t="s">
+      <c r="C192" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4">
         <v>487083</v>
       </c>
-      <c r="C215" s="2"/>
-      <c r="D215" t="s">
+      <c r="C193" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E215">
+      <c r="D193" s="2">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4">
         <v>652621</v>
       </c>
-      <c r="C216" s="2"/>
-      <c r="D216" t="s">
+      <c r="C194" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E216">
+      <c r="D194" s="2">
         <v>6.88</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4">
         <v>653003</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="D217" t="s">
+      <c r="C195" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E217">
+      <c r="D195" s="2">
         <v>1.29</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4">
         <v>516662</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2" t="s">
+      <c r="C196" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4">
         <v>516642</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="D219" t="s">
+      <c r="C197" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4">
         <v>756192</v>
       </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2" t="s">
+      <c r="C198" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4">
         <v>830330</v>
       </c>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2" t="s">
+      <c r="C199" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4">
         <v>830331</v>
       </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2" t="s">
+      <c r="C200" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2" t="s">
+      <c r="C201" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4">
         <v>521911</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2" t="s">
+      <c r="C202" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4">
         <v>515590</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4">
         <v>519804</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2" t="s">
+      <c r="C204" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4">
         <v>227016</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2" t="s">
+      <c r="C205" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4">
         <v>646244</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2" t="s">
+      <c r="C206" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4">
         <v>838209</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2" t="s">
+      <c r="C207" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2">
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4">
         <v>711255</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2" t="s">
+      <c r="C209" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4">
         <v>711371</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2" t="s">
+      <c r="C211" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4">
         <v>957700</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2" t="s">
+      <c r="C212" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4">
         <v>710109</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2" t="s">
+      <c r="C213" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4">
         <v>950530</v>
       </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2" t="s">
+      <c r="C215" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4">
         <v>815110</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2" t="s">
+      <c r="C216" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4">
         <v>815111</v>
       </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2" t="s">
+      <c r="C217" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4">
         <v>616865</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2" t="s">
+      <c r="C218" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4">
         <v>609525</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2" t="s">
+      <c r="C219" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E242">
+      <c r="D219" s="2">
         <v>14.53</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4">
         <v>990657</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2" t="s">
+      <c r="C220" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="2"/>
-      <c r="B244" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2" t="s">
+      <c r="C221" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4">
         <v>227121</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2" t="s">
+      <c r="C222" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4">
         <v>226057</v>
       </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2" t="s">
+      <c r="C223" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="2"/>
-      <c r="B258" t="s">
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2" t="s">
+      <c r="C225" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4">
         <v>632178</v>
       </c>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2" t="s">
+      <c r="C227" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="2"/>
-      <c r="B261" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2" t="s">
+      <c r="C228" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="2"/>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4">
+        <v>999503</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4">
+        <v>716154</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4">
+        <v>612607</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D233" s="2">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4">
+        <v>612518</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D234" s="2">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4">
+        <v>612532</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D235" s="2">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D237" s="2">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D238" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D239" s="2">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4">
+        <v>33253</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4">
+        <v>33371</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D241" s="2">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D243" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D244" s="2">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D245" s="2">
+        <v>34.159999999999997</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4">
+        <v>33503</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D246" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4">
+        <v>33190</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4">
+        <v>515502</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D249" s="2">
+        <v>42.15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4">
+        <v>515314</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="2">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4">
+        <v>22023</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D252" s="2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4">
+        <v>138903</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4">
+        <v>137505</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4">
+        <v>137507</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4">
+        <v>137509</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4">
+        <v>516903</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D260" s="2">
+        <v>149.47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
       <c r="B262" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2">
-        <v>999503</v>
-      </c>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2">
-        <v>716154</v>
-      </c>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2">
-        <v>612607</v>
-      </c>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E266">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2">
-        <v>612518</v>
-      </c>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E267">
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2">
-        <v>612532</v>
-      </c>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E268">
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C271" s="2"/>
-      <c r="D271" t="s">
-        <v>297</v>
-      </c>
-      <c r="E271">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C272" s="2"/>
-      <c r="D272" t="s">
-        <v>298</v>
-      </c>
-      <c r="E272">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C273" s="2"/>
-      <c r="D273" t="s">
-        <v>299</v>
-      </c>
-      <c r="E273">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2">
-        <v>33253</v>
-      </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2">
-        <v>33371</v>
-      </c>
-      <c r="C275" s="2"/>
-      <c r="D275" t="s">
-        <v>314</v>
-      </c>
-      <c r="E275">
-        <v>24.78</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C277" s="2"/>
-      <c r="D277" t="s">
-        <v>300</v>
-      </c>
-      <c r="E277">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C278" s="2"/>
-      <c r="D278" t="s">
-        <v>301</v>
-      </c>
-      <c r="E278">
-        <v>27.12</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C279" s="2"/>
-      <c r="D279" t="s">
-        <v>302</v>
-      </c>
-      <c r="E279">
-        <v>34.159999999999997</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2">
-        <v>33503</v>
-      </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E280">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2">
-        <v>33190</v>
-      </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2">
-        <v>515502</v>
-      </c>
-      <c r="C283" s="2"/>
-      <c r="D283" t="s">
-        <v>316</v>
-      </c>
-      <c r="E283">
-        <v>42.15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2">
-        <v>515314</v>
-      </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E284">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2">
-        <v>22023</v>
-      </c>
-      <c r="C286" s="2"/>
-      <c r="D286" t="s">
-        <v>318</v>
-      </c>
-      <c r="E286">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2">
-        <v>138903</v>
-      </c>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2">
-        <v>137505</v>
-      </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2">
-        <v>137507</v>
-      </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2">
-        <v>137509</v>
-      </c>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2">
-        <v>516903</v>
-      </c>
-      <c r="C295" s="2"/>
-      <c r="D295" t="s">
-        <v>317</v>
-      </c>
-      <c r="E295">
-        <v>149.47</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="2"/>
-      <c r="B298" t="s">
         <v>204</v>
       </c>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2" t="s">
+      <c r="C262" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2" t="s">
+      <c r="C263" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4">
         <v>516972</v>
       </c>
-      <c r="C300" s="2"/>
-      <c r="D300" t="s">
+      <c r="C264" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E300">
+      <c r="D264" s="2">
         <v>26.84</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4">
         <v>516971</v>
       </c>
-      <c r="C301" s="2"/>
-      <c r="D301" t="s">
+      <c r="C265" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E301">
+      <c r="D265" s="2">
         <v>24.72</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="307" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-    </row>
-    <row r="309" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
-    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="D2:D265" name="Prijs"/>
+    <protectedRange sqref="C2:C265" name="Omschrijving"/>
+    <protectedRange sqref="B2:B265" name="Nummer"/>
+    <protectedRange sqref="A2:A265" name="Benamingen"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Slooier_voorraad/Slooier_voorraad/Voorbeeld_Data/bestellijst wijngo materialenV2.xlsx
+++ b/Slooier_voorraad/Slooier_voorraad/Voorbeeld_Data/bestellijst wijngo materialenV2.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Red Darkness\Documents\Documenten\Github\Repositories\Slooier_management\Slooier_voorraad\Slooier_voorraad\Voorbeeld_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5F96A4-9DC4-4127-A1B2-9C5C7A04087C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221DAEBD-EC14-4ED2-847C-5E41862ACF72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artikelen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>hang en sluitwerk</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>Prijs</t>
+  </si>
+  <si>
+    <t>Voorraad</t>
   </si>
 </sst>
 </file>
@@ -1388,11 +1391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1401,11 +1404,12 @@
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="0" style="3" hidden="1"/>
-    <col min="7" max="16384" width="9.140625" style="3" hidden="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
@@ -1418,16 +1422,20 @@
       <c r="D1" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>51</v>
@@ -1438,8 +1446,9 @@
       <c r="D3" s="2">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>112</v>
@@ -1447,8 +1456,9 @@
       <c r="C4" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>76</v>
@@ -1456,38 +1466,43 @@
       <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>77</v>
@@ -1495,15 +1510,17 @@
       <c r="C10" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>70</v>
@@ -1511,8 +1528,9 @@
       <c r="C12" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>68</v>
@@ -1520,8 +1538,9 @@
       <c r="C13" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>79</v>
@@ -1529,8 +1548,9 @@
       <c r="C14" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>81</v>
@@ -1538,8 +1558,9 @@
       <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>67</v>
@@ -1547,8 +1568,9 @@
       <c r="C16" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>237</v>
@@ -1556,8 +1578,9 @@
       <c r="C17" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>66</v>
@@ -1565,8 +1588,9 @@
       <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>49</v>
@@ -1574,8 +1598,9 @@
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>238</v>
@@ -1583,8 +1608,9 @@
       <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>239</v>
@@ -1592,43 +1618,48 @@
       <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>52</v>
@@ -1636,8 +1667,9 @@
       <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>53</v>
@@ -1645,8 +1677,9 @@
       <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4">
         <v>301826</v>
@@ -1654,8 +1687,9 @@
       <c r="C29" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
         <v>999058</v>
@@ -1666,8 +1700,9 @@
       <c r="D30" s="2">
         <v>53.48</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
         <v>200084</v>
@@ -1678,16 +1713,18 @@
       <c r="D31" s="2">
         <v>9.44</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -1698,8 +1735,9 @@
       <c r="D33" s="2">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
         <v>200457</v>
@@ -1710,8 +1748,9 @@
       <c r="D34" s="2">
         <v>20.59</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
         <v>200043</v>
@@ -1722,8 +1761,9 @@
       <c r="D35" s="2">
         <v>11.24</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4">
         <v>200575</v>
@@ -1734,8 +1774,9 @@
       <c r="D36" s="2">
         <v>16.32</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4">
         <v>200337</v>
@@ -1746,8 +1787,9 @@
       <c r="D37" s="2">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <v>200131</v>
@@ -1758,8 +1800,9 @@
       <c r="D38" s="2">
         <v>13.99</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>201563</v>
@@ -1767,8 +1810,9 @@
       <c r="C39" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4">
         <v>201756</v>
@@ -1776,8 +1820,9 @@
       <c r="C40" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4">
         <v>275015</v>
@@ -1788,8 +1833,9 @@
       <c r="D41" s="2">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>330750</v>
@@ -1801,7 +1847,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
         <v>330775</v>
@@ -1813,7 +1859,7 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>187</v>
@@ -1821,8 +1867,9 @@
       <c r="C44" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>188</v>
@@ -1830,8 +1877,9 @@
       <c r="C45" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>189</v>
@@ -1839,16 +1887,18 @@
       <c r="C46" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4">
         <v>305466</v>
@@ -1859,8 +1909,9 @@
       <c r="D48" s="2">
         <v>31.01</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>305465</v>
@@ -1871,8 +1922,9 @@
       <c r="D49" s="2">
         <v>31.01</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4">
         <v>950127</v>
@@ -1883,8 +1935,9 @@
       <c r="D50" s="2">
         <v>14.76</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
         <v>950126</v>
@@ -1895,8 +1948,9 @@
       <c r="D51" s="2">
         <v>14.76</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
         <v>950177</v>
@@ -1904,8 +1958,9 @@
       <c r="C52" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
         <v>950176</v>
@@ -1913,8 +1968,9 @@
       <c r="C53" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
         <v>313139</v>
@@ -1925,8 +1981,9 @@
       <c r="D54" s="2">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
         <v>313118</v>
@@ -1934,8 +1991,9 @@
       <c r="C55" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
         <v>220</v>
@@ -1943,8 +2001,9 @@
       <c r="C56" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>83</v>
@@ -1952,8 +2011,9 @@
       <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>229</v>
@@ -1961,8 +2021,9 @@
       <c r="C58" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>201</v>
@@ -1970,8 +2031,9 @@
       <c r="C59" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>240</v>
@@ -1979,8 +2041,9 @@
       <c r="C60" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>200</v>
@@ -1988,8 +2051,9 @@
       <c r="C61" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4">
         <v>413980</v>
@@ -1998,7 +2062,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>413983</v>
@@ -2007,7 +2071,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4">
         <v>255234</v>
@@ -2018,8 +2082,9 @@
       <c r="D64" s="2">
         <v>16.47</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4">
         <v>305101</v>
@@ -2030,8 +2095,9 @@
       <c r="D65" s="2">
         <v>36.28</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
         <v>220005</v>
@@ -2042,8 +2108,9 @@
       <c r="D66" s="2">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>142</v>
@@ -2051,16 +2118,18 @@
       <c r="C67" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4">
         <v>155830</v>
@@ -2071,8 +2140,9 @@
       <c r="D69" s="2">
         <v>36.159999999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4">
         <v>155822</v>
@@ -2083,8 +2153,9 @@
       <c r="D70" s="2">
         <v>62.72</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4">
         <v>155823</v>
@@ -2095,8 +2166,9 @@
       <c r="D71" s="2">
         <v>62.72</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4">
         <v>151255</v>
@@ -2108,7 +2180,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4">
         <v>5128</v>
@@ -2116,8 +2188,9 @@
       <c r="C73" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4">
         <v>148020</v>
@@ -2129,14 +2202,15 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4">
         <v>148415</v>
@@ -2147,8 +2221,9 @@
       <c r="D76" s="2">
         <v>42.08</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4">
         <v>148658</v>
@@ -2156,8 +2231,9 @@
       <c r="C77" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4">
         <v>424531</v>
@@ -2165,8 +2241,9 @@
       <c r="C78" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4">
         <v>424510</v>
@@ -2174,8 +2251,9 @@
       <c r="C79" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4">
         <v>424515</v>
@@ -2183,15 +2261,17 @@
       <c r="C80" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4">
         <v>155545</v>
@@ -2203,14 +2283,15 @@
         <v>182.04</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4">
         <v>970420</v>
@@ -2218,8 +2299,9 @@
       <c r="C84" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4">
         <v>148735</v>
@@ -2230,8 +2312,9 @@
       <c r="D85" s="2">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4">
         <v>150922</v>
@@ -2243,7 +2326,7 @@
         <v>140.97</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4">
         <v>150935</v>
@@ -2254,8 +2337,9 @@
       <c r="D87" s="2">
         <v>59.81</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4">
         <v>151296</v>
@@ -2266,8 +2350,9 @@
       <c r="D88" s="2">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4">
         <v>525086</v>
@@ -2275,8 +2360,9 @@
       <c r="C89" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4">
         <v>429659</v>
@@ -2284,8 +2370,9 @@
       <c r="C90" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4">
         <v>155628</v>
@@ -2297,7 +2384,7 @@
         <v>170.93</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4">
         <v>424575</v>
@@ -2305,8 +2392,9 @@
       <c r="C92" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4">
         <v>525501</v>
@@ -2314,8 +2402,9 @@
       <c r="C93" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4">
         <v>525502</v>
@@ -2323,8 +2412,9 @@
       <c r="C94" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4">
         <v>525503</v>
@@ -2332,8 +2422,9 @@
       <c r="C95" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4">
         <v>525504</v>
@@ -2341,8 +2432,9 @@
       <c r="C96" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4">
         <v>525505</v>
@@ -2350,16 +2442,18 @@
       <c r="C97" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="2" t="s">
         <v>118</v>
@@ -2367,8 +2461,9 @@
       <c r="C99" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>119</v>
@@ -2376,8 +2471,9 @@
       <c r="C100" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>168</v>
@@ -2385,8 +2481,9 @@
       <c r="C101" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>166</v>
@@ -2394,15 +2491,17 @@
       <c r="C102" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>122</v>
@@ -2410,8 +2509,9 @@
       <c r="C104" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4">
         <v>524952</v>
@@ -2419,8 +2519,9 @@
       <c r="C105" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4">
         <v>483253</v>
@@ -2431,8 +2532,9 @@
       <c r="D106" s="2">
         <v>33.28</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4">
         <v>483251</v>
@@ -2443,8 +2545,9 @@
       <c r="D107" s="2">
         <v>14.58</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="2" t="s">
         <v>219</v>
@@ -2452,8 +2555,9 @@
       <c r="C108" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4">
         <v>515182</v>
@@ -2464,8 +2568,9 @@
       <c r="D109" s="2">
         <v>17.27</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4">
         <v>515184</v>
@@ -2476,8 +2581,9 @@
       <c r="D110" s="2">
         <v>34.58</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4">
         <v>515185</v>
@@ -2488,16 +2594,18 @@
       <c r="D111" s="2">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4">
         <v>516214</v>
@@ -2509,7 +2617,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4">
         <v>516222</v>
@@ -2520,8 +2628,9 @@
       <c r="D114" s="2">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4">
         <v>516231</v>
@@ -2532,8 +2641,9 @@
       <c r="D115" s="2">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4">
         <v>516301</v>
@@ -2544,8 +2654,9 @@
       <c r="D116" s="2">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4">
         <v>516302</v>
@@ -2556,8 +2667,9 @@
       <c r="D117" s="2">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4">
         <v>516305</v>
@@ -2568,8 +2680,9 @@
       <c r="D118" s="2">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4">
         <v>516287</v>
@@ -2577,8 +2690,9 @@
       <c r="C119" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4">
         <v>516254</v>
@@ -2589,8 +2703,9 @@
       <c r="D120" s="2">
         <v>6.89</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4">
         <v>516252</v>
@@ -2601,8 +2716,9 @@
       <c r="D121" s="2">
         <v>6.89</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4">
         <v>516251</v>
@@ -2613,8 +2729,9 @@
       <c r="D122" s="2">
         <v>6.89</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4">
         <v>516253</v>
@@ -2625,8 +2742,9 @@
       <c r="D123" s="2">
         <v>6.89</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4">
         <v>516256</v>
@@ -2634,8 +2752,9 @@
       <c r="C124" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4">
         <v>516276</v>
@@ -2646,8 +2765,9 @@
       <c r="D125" s="2">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4">
         <v>516405</v>
@@ -2658,8 +2778,9 @@
       <c r="D126" s="2">
         <v>7.34</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4">
         <v>516410</v>
@@ -2670,8 +2791,9 @@
       <c r="D127" s="2">
         <v>9.8699999999999992</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4">
         <v>500347</v>
@@ -2679,8 +2801,9 @@
       <c r="C128" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>192</v>
@@ -2688,16 +2811,18 @@
       <c r="C129" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>65</v>
@@ -2705,8 +2830,9 @@
       <c r="C131" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>143</v>
@@ -2714,8 +2840,9 @@
       <c r="C132" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>98</v>
@@ -2723,8 +2850,9 @@
       <c r="C133" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4">
         <v>479074</v>
@@ -2732,8 +2860,9 @@
       <c r="C134" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4">
         <v>479072</v>
@@ -2741,8 +2870,9 @@
       <c r="C135" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="2" t="s">
         <v>94</v>
@@ -2750,8 +2880,9 @@
       <c r="C136" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>93</v>
@@ -2759,8 +2890,9 @@
       <c r="C137" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>95</v>
@@ -2768,8 +2900,9 @@
       <c r="C138" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>96</v>
@@ -2777,16 +2910,18 @@
       <c r="C139" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>266</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4">
         <v>516631</v>
@@ -2794,8 +2929,9 @@
       <c r="C141" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4">
         <v>516622</v>
@@ -2806,8 +2942,9 @@
       <c r="D142" s="2">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4">
         <v>479001</v>
@@ -2818,15 +2955,17 @@
       <c r="D143" s="2">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4">
         <v>641383</v>
@@ -2838,7 +2977,7 @@
         <v>12.41</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4">
         <v>641361</v>
@@ -2849,8 +2988,9 @@
       <c r="D146" s="2">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4">
         <v>516820</v>
@@ -2858,8 +2998,9 @@
       <c r="C147" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4">
         <v>516805</v>
@@ -2867,8 +3008,9 @@
       <c r="C148" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4">
         <v>636384</v>
@@ -2880,7 +3022,7 @@
         <v>255.6</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4">
         <v>970104</v>
@@ -2891,8 +3033,9 @@
       <c r="D150" s="2">
         <v>26.36</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4">
         <v>601429</v>
@@ -2900,8 +3043,9 @@
       <c r="C151" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4">
         <v>507879</v>
@@ -2912,8 +3056,9 @@
       <c r="D152" s="2">
         <v>35.53</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4">
         <v>507881</v>
@@ -2924,8 +3069,9 @@
       <c r="D153" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4">
         <v>507880</v>
@@ -2936,16 +3082,18 @@
       <c r="D154" s="2">
         <v>11.28</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4">
         <v>946015</v>
@@ -2953,8 +3101,9 @@
       <c r="C156" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4">
         <v>946296</v>
@@ -2962,8 +3111,9 @@
       <c r="C157" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4">
         <v>946012</v>
@@ -2971,8 +3121,9 @@
       <c r="C158" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4">
         <v>946294</v>
@@ -2980,8 +3131,9 @@
       <c r="C159" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4">
         <v>474409</v>
@@ -2993,7 +3145,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4">
         <v>455109</v>
@@ -3001,8 +3153,9 @@
       <c r="C161" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4">
         <v>468034</v>
@@ -3013,16 +3166,18 @@
       <c r="D162" s="2">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4">
         <v>516121</v>
@@ -3030,8 +3185,9 @@
       <c r="C164" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4">
         <v>975264</v>
@@ -3039,8 +3195,9 @@
       <c r="C165" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4">
         <v>975014</v>
@@ -3048,8 +3205,9 @@
       <c r="C166" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4">
         <v>975019</v>
@@ -3057,8 +3215,9 @@
       <c r="C167" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4">
         <v>975186</v>
@@ -3066,8 +3225,9 @@
       <c r="C168" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4">
         <v>522293</v>
@@ -3075,16 +3235,18 @@
       <c r="C169" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4">
         <v>847051</v>
@@ -3092,8 +3254,9 @@
       <c r="C171" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4">
         <v>515534</v>
@@ -3104,8 +3267,9 @@
       <c r="D172" s="2">
         <v>17.55</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4">
         <v>643442</v>
@@ -3116,8 +3280,9 @@
       <c r="D173" s="2">
         <v>25.23</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4">
         <v>515521</v>
@@ -3125,8 +3290,9 @@
       <c r="C174" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4">
         <v>526401</v>
@@ -3137,8 +3303,9 @@
       <c r="D175" s="2">
         <v>10.92</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4">
         <v>526449</v>
@@ -3146,8 +3313,9 @@
       <c r="C176" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4">
         <v>526450</v>
@@ -3155,8 +3323,9 @@
       <c r="C177" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4">
         <v>526724</v>
@@ -3164,8 +3333,9 @@
       <c r="C178" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4">
         <v>526709</v>
@@ -3173,8 +3343,9 @@
       <c r="C179" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4">
         <v>957872</v>
@@ -3182,8 +3353,9 @@
       <c r="C180" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4">
         <v>716503</v>
@@ -3191,16 +3363,18 @@
       <c r="C181" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>262</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4">
         <v>601345</v>
@@ -3211,8 +3385,9 @@
       <c r="D183" s="2">
         <v>17.440000000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4">
         <v>606033</v>
@@ -3220,8 +3395,9 @@
       <c r="C184" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4">
         <v>623015</v>
@@ -3229,8 +3405,9 @@
       <c r="C185" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4">
         <v>623119</v>
@@ -3238,8 +3415,9 @@
       <c r="C186" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4">
         <v>721300</v>
@@ -3250,8 +3428,9 @@
       <c r="D187" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4">
         <v>651334</v>
@@ -3262,8 +3441,9 @@
       <c r="D188" s="2">
         <v>67.75</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4">
         <v>514687</v>
@@ -3271,8 +3451,9 @@
       <c r="C189" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4">
         <v>653022</v>
@@ -3283,8 +3464,9 @@
       <c r="D190" s="2">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4">
         <v>600199</v>
@@ -3292,8 +3474,9 @@
       <c r="C191" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4">
         <v>600221</v>
@@ -3301,8 +3484,9 @@
       <c r="C192" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4">
         <v>487083</v>
@@ -3314,7 +3498,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4">
         <v>652621</v>
@@ -3326,7 +3510,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4">
         <v>653003</v>
@@ -3338,7 +3522,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4">
         <v>516662</v>
@@ -3346,8 +3530,9 @@
       <c r="C196" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4">
         <v>516642</v>
@@ -3356,7 +3541,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4">
         <v>756192</v>
@@ -3364,8 +3549,9 @@
       <c r="C198" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4">
         <v>830330</v>
@@ -3373,8 +3559,9 @@
       <c r="C199" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4">
         <v>830331</v>
@@ -3382,8 +3569,9 @@
       <c r="C200" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
         <v>159</v>
@@ -3391,8 +3579,9 @@
       <c r="C201" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4">
         <v>521911</v>
@@ -3400,8 +3589,9 @@
       <c r="C202" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4">
         <v>515590</v>
@@ -3409,8 +3599,9 @@
       <c r="C203" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4">
         <v>519804</v>
@@ -3418,8 +3609,9 @@
       <c r="C204" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4">
         <v>227016</v>
@@ -3427,8 +3619,9 @@
       <c r="C205" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4">
         <v>646244</v>
@@ -3436,8 +3629,9 @@
       <c r="C206" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4">
         <v>838209</v>
@@ -3445,16 +3639,18 @@
       <c r="C207" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="1"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4">
         <v>711255</v>
@@ -3462,15 +3658,17 @@
       <c r="C209" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4">
         <v>711371</v>
@@ -3478,8 +3676,9 @@
       <c r="C211" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4">
         <v>957700</v>
@@ -3487,8 +3686,9 @@
       <c r="C212" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="4"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4">
         <v>710109</v>
@@ -3496,15 +3696,17 @@
       <c r="C213" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4">
         <v>950530</v>
@@ -3512,8 +3714,9 @@
       <c r="C215" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4">
         <v>815110</v>
@@ -3521,8 +3724,9 @@
       <c r="C216" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4">
         <v>815111</v>
@@ -3530,8 +3734,9 @@
       <c r="C217" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4">
         <v>616865</v>
@@ -3539,8 +3744,9 @@
       <c r="C218" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4">
         <v>609525</v>
@@ -3551,8 +3757,9 @@
       <c r="D219" s="2">
         <v>14.53</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4">
         <v>990657</v>
@@ -3560,8 +3767,9 @@
       <c r="C220" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="2" t="s">
         <v>87</v>
@@ -3569,8 +3777,9 @@
       <c r="C221" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4">
         <v>227121</v>
@@ -3578,8 +3787,9 @@
       <c r="C222" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4">
         <v>226057</v>
@@ -3587,16 +3797,18 @@
       <c r="C223" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="1"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="2" t="s">
         <v>145</v>
@@ -3604,15 +3816,17 @@
       <c r="C225" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4">
         <v>632178</v>
@@ -3620,8 +3834,9 @@
       <c r="C227" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="2" t="s">
         <v>140</v>
@@ -3629,8 +3844,9 @@
       <c r="C228" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4" t="s">
         <v>60</v>
@@ -3638,8 +3854,9 @@
       <c r="C229" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4">
         <v>999503</v>
@@ -3647,8 +3864,9 @@
       <c r="C230" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4">
         <v>716154</v>
@@ -3656,8 +3874,9 @@
       <c r="C231" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>151</v>
@@ -3665,8 +3884,9 @@
       <c r="C232" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4">
         <v>612607</v>
@@ -3677,8 +3897,9 @@
       <c r="D233" s="2">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4">
         <v>612518</v>
@@ -3689,8 +3910,9 @@
       <c r="D234" s="2">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4">
         <v>612532</v>
@@ -3701,16 +3923,18 @@
       <c r="D235" s="2">
         <v>9.5500000000000007</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="1"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="s">
         <v>279</v>
@@ -3722,7 +3946,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4" t="s">
         <v>280</v>
@@ -3734,7 +3958,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
         <v>281</v>
@@ -3746,7 +3970,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4">
         <v>33253</v>
@@ -3754,8 +3978,9 @@
       <c r="C240" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4">
         <v>33371</v>
@@ -3767,14 +3992,14 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4" t="s">
         <v>135</v>
@@ -3786,7 +4011,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4" t="s">
         <v>136</v>
@@ -3798,7 +4023,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4" t="s">
         <v>193</v>
@@ -3810,7 +4035,7 @@
         <v>34.159999999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4">
         <v>33503</v>
@@ -3821,8 +4046,9 @@
       <c r="D246" s="2">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4">
         <v>33190</v>
@@ -3830,16 +4056,18 @@
       <c r="C247" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4">
         <v>515502</v>
@@ -3851,7 +4079,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4">
         <v>515314</v>
@@ -3862,15 +4090,17 @@
       <c r="D250" s="2">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4">
         <v>22023</v>
@@ -3882,15 +4112,16 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="1"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="5"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4">
         <v>138903</v>
@@ -3898,22 +4129,25 @@
       <c r="C254" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4">
         <v>137505</v>
@@ -3921,8 +4155,9 @@
       <c r="C257" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4">
         <v>137507</v>
@@ -3930,8 +4165,9 @@
       <c r="C258" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4">
         <v>137509</v>
@@ -3939,8 +4175,9 @@
       <c r="C259" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4">
         <v>516903</v>
@@ -3952,15 +4189,16 @@
         <v>149.47</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="1"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="2" t="s">
         <v>204</v>
@@ -3968,8 +4206,9 @@
       <c r="C262" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="4"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4" t="s">
         <v>138</v>
@@ -3977,8 +4216,9 @@
       <c r="C263" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="4"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4">
         <v>516972</v>
@@ -3990,7 +4230,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4">
         <v>516971</v>
@@ -4002,13 +4242,13 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4051,7 +4291,7 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D2:D265" name="Prijs"/>
-    <protectedRange sqref="C2:C265" name="Omschrijving"/>
+    <protectedRange sqref="C2:C265 E2:E265" name="Omschrijving"/>
     <protectedRange sqref="B2:B265" name="Nummer"/>
     <protectedRange sqref="A2:A265" name="Benamingen"/>
   </protectedRanges>
